--- a/Assets/AssetsDevelop/LocalizationExcel/Common.xlsx
+++ b/Assets/AssetsDevelop/LocalizationExcel/Common.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Key</t>
   </si>
@@ -56,34 +56,13 @@
     <t>Start Game</t>
   </si>
   <si>
-    <t>dd</t>
+    <t>CountDown</t>
   </si>
   <si>
-    <t>ds</t>
+    <t>倒计时</t>
   </si>
   <si>
-    <t>ewq</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>iuy</t>
-  </si>
-  <si>
-    <t>对方是否</t>
-  </si>
-  <si>
-    <t>犯得上s</t>
-  </si>
-  <si>
-    <t>哈哈哈</t>
-  </si>
-  <si>
-    <t>hahahssd</t>
+    <t>Count Dowm</t>
   </si>
 </sst>
 </file>
@@ -1239,13 +1218,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90825688073394" defaultRowHeight="12.9" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.90825688073394" defaultRowHeight="12.9" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.90825688073394" style="1"/>
     <col min="2" max="2" width="25.4220183486239" style="1" customWidth="1"/>
@@ -1290,54 +1269,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/AssetsDevelop/LocalizationExcel/Common.xlsx
+++ b/Assets/AssetsDevelop/LocalizationExcel/Common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26083" windowHeight="10827"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>倒计时</t>
   </si>
   <si>
-    <t>Count Dowm</t>
+    <t>Count Down</t>
   </si>
 </sst>
 </file>
@@ -1221,14 +1221,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90825688073394" defaultRowHeight="12.9" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.90740740740741" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.90825688073394" style="1"/>
-    <col min="2" max="2" width="25.4220183486239" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90825688073394" style="1"/>
+    <col min="1" max="1" width="9.90740740740741" style="1"/>
+    <col min="2" max="2" width="25.4259259259259" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
